--- a/So lieu UMC care.xlsx
+++ b/So lieu UMC care.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365tmu-my.sharepoint.com/personal/d931109001_o365_tmu_edu_tw/Documents/My Drive/TK_UMCcare_20250131/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhphucphan/Documents/TK_UMCcare_20250131/UMCcare_dashborad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{A1F7C5FC-C41A-A34A-BF5B-7CEC29C89B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA9A3667-3E5C-4E4C-A5D5-CE90F5DB4B21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9539749D-CC75-3B46-A7F8-645C69B5FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34780" yWindow="1280" windowWidth="37100" windowHeight="20320" activeTab="13" xr2:uid="{EB227362-C222-9341-8836-7AB8DDCBDBDD}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" activeTab="1" xr2:uid="{EB227362-C222-9341-8836-7AB8DDCBDBDD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan_24" sheetId="1" r:id="rId1"/>
-    <sheet name="Feb_24" sheetId="2" r:id="rId2"/>
-    <sheet name="March_24" sheetId="3" r:id="rId3"/>
-    <sheet name="Apr_24" sheetId="4" r:id="rId4"/>
-    <sheet name="May_24" sheetId="5" r:id="rId5"/>
-    <sheet name="Jun_24" sheetId="6" r:id="rId6"/>
-    <sheet name="July_24" sheetId="7" r:id="rId7"/>
-    <sheet name="Aug_24" sheetId="8" r:id="rId8"/>
-    <sheet name="Sep_24" sheetId="9" r:id="rId9"/>
-    <sheet name="Oct_24" sheetId="10" r:id="rId10"/>
-    <sheet name="Nov_24" sheetId="11" r:id="rId11"/>
-    <sheet name="Dec_24" sheetId="12" r:id="rId12"/>
-    <sheet name="Jan_25" sheetId="13" r:id="rId13"/>
-    <sheet name="Feb_25" sheetId="14" r:id="rId14"/>
+    <sheet name="Jan-24" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb-24" sheetId="2" r:id="rId2"/>
+    <sheet name="Mar-24" sheetId="3" r:id="rId3"/>
+    <sheet name="Apr-24" sheetId="4" r:id="rId4"/>
+    <sheet name="May-24" sheetId="5" r:id="rId5"/>
+    <sheet name="Jun-24" sheetId="6" r:id="rId6"/>
+    <sheet name="July-24" sheetId="7" r:id="rId7"/>
+    <sheet name="Aug-24" sheetId="8" r:id="rId8"/>
+    <sheet name="Sep-24" sheetId="9" r:id="rId9"/>
+    <sheet name="Oct-24" sheetId="10" r:id="rId10"/>
+    <sheet name="Nov-24" sheetId="11" r:id="rId11"/>
+    <sheet name="Dec-24" sheetId="12" r:id="rId12"/>
+    <sheet name="Jan-25" sheetId="13" r:id="rId13"/>
+    <sheet name="Feb-25" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -5770,7 +5770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645A6C4-D54E-C848-919A-24B95C62D291}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6792,8 +6792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77645EDD-1301-0845-B682-52952BCC9F96}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
